--- a/medicine/Enfance/Charlotte_et_Henri/Charlotte_et_Henri.xlsx
+++ b/medicine/Enfance/Charlotte_et_Henri/Charlotte_et_Henri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Charlotte et Henri est une bande dessinée publiée par le magazine pour enfants Les Belles Histoires, chaque mois de 1985 à 2001.
@@ -512,7 +524,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le scénario et les illustrations sont de Bob Graham (en), l'adaptation de Bernadette Garreta et le lettrage de Nicole Vilette.
 Deux albums ont été édités : Les aventures de Charlotte et Henri en 1987 et Les mercredis de Charlotte et Henri en 1997.
@@ -545,7 +559,9 @@
           <t>Adaptation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cinq courts-métrages d'animation regroupés sous le titre The Adventures of Charlotte and Henry ont été produits en 2008 par le réalisateur Steve Trenbirth
  Portail de la bande dessinée   Portail de la presse écrite   Portail de la littérature d’enfance et de jeunesse                   </t>
